--- a/out/policy_events_2026-02-24.xlsx
+++ b/out/policy_events_2026-02-24.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,17 +476,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>트럼프 “대법 결정으로 장난치는 국가, 훨씬 더 높은 관세 부과” 경고 - 한겨레</t>
+          <t>트럼프 “대법 결정 갖고 장난치는 국가, 훨씬 더 높은 관세 부과” - 한겨레</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>트럼프 “대법 결정으로 장난치는 국가, 훨씬 더 높은 관세 부과” 경고&amp;nbsp;&amp;nbsp;한겨레트럼프 "'꼼수'부리면 더 가혹한 관세"…대미 투자 이행 압박&amp;nbsp;&amp;nbsp;아시아경제CNN “트럼프 ‘플랜B’ 122조 관세도 위법 좌초 가능성”&amp;nbsp;&amp;nbsp;조선일보</t>
+          <t>트럼프 “대법 결정 갖고 장난치는 국가, 훨씬 더 높은 관세 부과”&amp;nbsp;&amp;nbsp;한겨레트럼프가 쥔 ‘관세 카드’ 232조·301조…발동되면 세율 조정 만능키&amp;nbsp;&amp;nbsp;한겨레앤디 김 등 美민주 의원들, 위법판결 받은 관세 환급법안 발의&amp;nbsp;&amp;nbsp;연합뉴스</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 21:48:00 GMT</t>
+          <t>Tue, 24 Feb 2026 00:05:00 GMT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -513,22 +513,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>뉴욕증시, 변덕스러운 관세·AI 파괴론에 '휘청'…하락 마감 - 연합뉴스</t>
+          <t>성 김 현대차 사장 "관세 25%시 車산업 경쟁력 약화…신속 법안심사를" - v.daum.net</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>뉴욕증시, 변덕스러운 관세·AI 파괴론에 '휘청'…하락 마감&amp;nbsp;&amp;nbsp;연합뉴스</t>
+          <t>성 김 현대차 사장 "관세 25%시 車산업 경쟁력 약화…신속 법안심사를"&amp;nbsp;&amp;nbsp;v.daum.net</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 21:49:30 GMT</t>
+          <t>Tue, 24 Feb 2026 00:01:24 GMT</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE15eS1jaVJrcXNBTTR2dU5zXzIxR0tCVDlGWnNQdDh1VFZQZmNDWG9mbFVmYXFfMlRIWGwxcUdsNXFhY0VoLUhGMVJ5RHVaTEtHWTZsbkZicndTclXSAWBBVV95cUxNcDY5Tnd5ekpZWmhwTC1wTTZpaWVyMUo4WHIyVG0xTjRQcnZKRUJZbHJlX0FueG0tbFNyOFhCc1dGREFieGpHeUVkaUphUDlvQUFpb01CMGd0em0wSXB6bE4?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE9KXzZMZ09TT1B6RGlxQnVXT2lOY09EZXNxMXhVTldRUkxkQUh0TDBjMkpFMU1XOERCMTI1cDVjR1puUnZTVzFoQmpEMjM1Rk0?oc=5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -550,22 +550,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>뉴욕증시, 관세 불확실성·AI 산업 파괴 우려에 하락…금값, 3% 이상 급등 [글로벌마켓 모닝 브리핑] - 이투데이</t>
+          <t>“관세 판결, 환율의 ‘게임 체인저’는 아니다” - 조선일보</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>뉴욕증시, 관세 불확실성·AI 산업 파괴 우려에 하락…금값, 3% 이상 급등 [글로벌마켓 모닝 브리핑]&amp;nbsp;&amp;nbsp;이투데이</t>
+          <t>“관세 판결, 환율의 ‘게임 체인저’는 아니다”&amp;nbsp;&amp;nbsp;조선일보</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 22:55:00 GMT</t>
+          <t>Tue, 24 Feb 2026 00:13:00 GMT</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiVEFVX3lxTE8tY1JSbW5GZ3loSkNDVG80dmN1OGxwUk04dUVLcDJJLV9kSl9iS0dFTDczemhCd25kczVoR1Iyb0RBMnF5b0hmWjNVdzYxaEp1S2wyVA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxOUXhaaURlUU1BY3BYZjYzVUZhMXZwcGQ2alVaZ0s2aUtEYm1FVkp0ZEc4S2JNWVRZbEVBTTI1Z2NNd0NpZElsdWd6aWRLcG9nNVFUeEtKNDZocXRWZkdCLWgxRTVzc3NnczZFc2N4NEZfR3UwSUdGYU40T21vc2FOb0d5Nms3b1Q3Vi1Mc1RB0gGiAUFVX3lxTE9LbW5DSElJMHZkc2FOODZQMUlDQi1QRzREd1N2M2hmM1IzTnh4bUFhZ1RYSVdhU3FtclhZRHlHNi0yYUlEWmJSR3k2eW16bHY3MkNNZEE5VkpJZ0l2STdMZnNteXNKTW04UGswdE80d3BsRWZKM2VtUlA5OThIN3dfd196UGo0VloybkZaYlpRQWdjNlp3NFdZYVFJdnZJaVU0QQ?oc=5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -587,22 +587,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>뉴욕 증시, 트럼프發 관세·AI 우려 하락 마감…다우지수 1.66% ↓(종합) - 뉴시스</t>
+          <t>'美 관세' 불확실성 지속…원·달러 환율 장중 1430원대 - 뉴시스</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>뉴욕 증시, 트럼프發 관세·AI 우려 하락 마감…다우지수 1.66% ↓(종합)&amp;nbsp;&amp;nbsp;뉴시스</t>
+          <t>'美 관세' 불확실성 지속…원·달러 환율 장중 1430원대&amp;nbsp;&amp;nbsp;뉴시스</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 21:46:15 GMT</t>
+          <t>Mon, 23 Feb 2026 01:49:16 GMT</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE1PZVgxSk4tTGRPS3JQTjNSaTdvaWNMTHBDcVhFMmZRMlozMGdlOGJJZkJpQndfSWlZd3BSbDFSVUdpQ2JvTElELTdwSEltaWxuamsxTXlSTmo2X1ExZDRVOA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE90ZGUyaV9nUGYwRENGNF90NWR5aFNzYTNtT2szcVVJSjRNSHlFSVR4TkFCZmtCV2xjdTd1ZDVHU1JmM3ItVXRuWV85alUxTm8wQW1hSHNfM1AzWWJTaENtS9IBeEFVX3lxTE1tX0lKQU1YS1NrV0YzallBME5uSWh6bHZZQ3l3MktFejZYdGVsYXBXaTg3OVdBSW80b3FlMUx4RFhXVEhMOVpLeXZOMXFrTnMxTzVITmd0eWNXN1NEcFVXa3gtY0JOZm0xdmFfYVh3ZDJyQ1ZxUGJUTg?oc=5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -624,22 +624,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>美 관세 압박에 '상계관세'까지…‘설상가상’ 철강업계 [통상 압박, 축 이동] - 이투데이</t>
+          <t>환율, 美 관세정책 혼선에 5.6원 오른 1,445.6원 - 연합뉴스</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>美 관세 압박에 '상계관세'까지…‘설상가상’ 철강업계 [통상 압박, 축 이동]&amp;nbsp;&amp;nbsp;이투데이</t>
+          <t>환율, 美 관세정책 혼선에 5.6원 오른 1,445.6원&amp;nbsp;&amp;nbsp;연합뉴스</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 20:00:00 GMT</t>
+          <t>Tue, 24 Feb 2026 00:09:09 GMT</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiVEFVX3lxTE1uUkxiblBKeDdwWlBheGRzWU5rQWtVam1CUGFpR0Rrbm1fQlp1VjQ3bmtqVUgwRWY0YXZ2cWZ4ekNvWTVXaGJPOW4zNjZQbEp1RUtaOQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTFBia2xiYUg4NExyYmRYOG1hMWttTnVuUVRCZUdIeHFILUlJa3Q5VzZRSXF4S2FHMVBxd0tfRlA0cGlCdlliUFViQjZub1BDMTFOcGNEOG1YaXlHSEnSAWBBVV95cUxOY2VHNUl0V296QkM5MUlZVEpvaGhLMmpaRGJTRkRWTkxsdmJITlFvbnJ1YWhiT0ZrYUJTZXkzWC02dE5fUjY0bnJFUy0tRER0blQxM1ZkSkoyV1ZRZHhlVl8?oc=5</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -661,32 +661,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>"美 관세 환급 신청 쉽지 않을 것"…중기업계, 복잡한 셈법 - 뉴스1</t>
+          <t>관세청, 'WTO 관세평가협정·HS 해설서' 번역 오류 바로잡아 - 뉴스1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"美 관세 환급 신청 쉽지 않을 것"…중기업계, 복잡한 셈법&amp;nbsp;&amp;nbsp;뉴스1</t>
+          <t>관세청, 'WTO 관세평가협정·HS 해설서' 번역 오류 바로잡아&amp;nbsp;&amp;nbsp;뉴스1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 21:33:00 GMT</t>
+          <t>Tue, 24 Feb 2026 00:25:08 GMT</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiXEFVX3lxTE44alJ1Sng4Q0RDXzIzMzBQbzc0S3pCdGZRcHBRVjRlZG5KQ1l0WTJNejktREpvOWpJNVcyc0NNZUlUaHpvWWQzQUNOck5vQzNkckpIQkh6dDF6dU9L?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE1CQmFsZVpzdGxBdkMycDFrMjMyeW0zM1RUdG9VN2NFcUU5aF9PU2FnajV4dlItUHQ3aGhjZVl0ejZQbTctX0NSTlpFQWdSYWw4eXFOS09GWlY0bnZTaEJPag?oc=5</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>하</t>
+          <t>중</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -698,32 +698,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>美민주당, 트럼프 글로벌 관세 연장에 제동 예고 - 아시아경제</t>
+          <t>"관세 전액 돌려달라"…페덱스, IEEPA 환급 소송 제기 - 뉴시스</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>美민주당, 트럼프 글로벌 관세 연장에 제동 예고&amp;nbsp;&amp;nbsp;아시아경제</t>
+          <t>"관세 전액 돌려달라"…페덱스, IEEPA 환급 소송 제기&amp;nbsp;&amp;nbsp;뉴시스</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 20:56:00 GMT</t>
+          <t>Tue, 24 Feb 2026 00:59:41 GMT</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE41X3dyVkFSTFNiS3Yyb1YwU0RhOGlVMlUtY0VJVzc3el9aLVpWeE1KODhyMkQ0ajFIc3N6bUNUc1M3SUZRY3R1Uk5IRTJTYVBoNnYxT3RiMjNBZktFR1hZVg?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTFBNbzBlNU9aZjk0b1l5RHlnQjNUMkRFelRJck1jaENwd0VWTTRIV2tqWUgxaEFhUGFZeXFtSXBVX3hpckUwb2tqVnd4OGwzVEQ2Q19KRUpZMWlsUFlIZXdWaNIBeEFVX3lxTFA2QW5ud0NGeWtBaXpWNUhBaUVJMU1PdU9ZdTJ1VWhyXzlCRjdmNUM0eHdqemY1S1M0eXhNUUthU2dFTDg3NU51aWhWZ1B1UGFpdVRzSnU5Z2JNRXRTQ0ZGbEY5TU5IejRLZGFidm01MHRTLTRPeTJMTQ?oc=5</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>하</t>
+          <t>중</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -735,22 +735,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>‘모든 수입품’에 15% 관세…세계 무역질서 뒤엎은 트럼프 - 한겨레</t>
+          <t>페덱스 정부에 “관세 돌려줘” 美기업 최초 소송(종합) - 뉴스1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>‘모든 수입품’에 15% 관세…세계 무역질서 뒤엎은 트럼프&amp;nbsp;&amp;nbsp;한겨레</t>
+          <t>페덱스 정부에 “관세 돌려줘” 美기업 최초 소송(종합)&amp;nbsp;&amp;nbsp;뉴스1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 08:14:00 GMT</t>
+          <t>Mon, 23 Feb 2026 23:57:24 GMT</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE1HX3c4bVlqY0lLRklmbUZIUjM3N3ZRalZ6SnQ2TExWTEhKT3E4YzBkaS1WTGROc1JRNkZ5X19fbUpCZDh2MFp0VW9HRDFZWUVjV1Q5SWkyRU5jTXpyTXJHTG5zOU9fWDRvVDlhVHp1RQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiWEFVX3lxTFBUMHM1cW1Pd19vMTBoY0pYRTFLdXVnLWNWQjY2c2ptY2FEVF9DLWZkYlIzTW15UDhOdVVWTWlNNV9kWHVYbGI2VjdVYkloZW9GWTlPVEd5c00?oc=5</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -772,22 +772,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[기자수첩] 커지는 트럼프 불확실성, 기업엔 '관세 보험'이 필요하다 - 디지털투데이</t>
+          <t>페덱스, 트럼프 긴급 관세 전액 환불 요구하며 미국 정부 고소 By Investing.com - Investing.com 한국어</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[기자수첩] 커지는 트럼프 불확실성, 기업엔 '관세 보험'이 필요하다&amp;nbsp;&amp;nbsp;디지털투데이</t>
+          <t>페덱스, 트럼프 긴급 관세 전액 환불 요구하며 미국 정부 고소 By Investing.com&amp;nbsp;&amp;nbsp;Investing.com 한국어</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 21:01:07 GMT</t>
+          <t>Mon, 23 Feb 2026 23:39:00 GMT</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE1uYk9kVXZEazBuWGVfSWctenZ4RE83cE54ZFlpSE9weDJNUkFHQUFFZVJvVWVMV1R4OWlDbF9sN3p5SnFBSnNiSUZIeFdONHlvd0JiNE5XMUFjdHBWNE82NU9aakNoQ3dxRXlDYUJMaTRHR3c?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMicEFVX3lxTFBHdnJhaWMybjZlUkhDdGFnb0hORVN0YThTcU1HaF9ER3VmZVZTVmVMSnhYTHM0OFJEZUlWRFhXcXM2VXBlczlvb1JncC1ZYVVQSjdUSExfb1ZvZjQ4ZTJJcy1SQ21NaFBlaHNzekFyTTg?oc=5</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -809,22 +809,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>트럼프 "대법원 결정으로 장난치는 국가, 더 높은 관세" - YTN</t>
+          <t>미국 '상호관세 위법' 판결, 금 가격엔 어떤 영향? - 지디넷코리아</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>트럼프 "대법원 결정으로 장난치는 국가, 더 높은 관세"&amp;nbsp;&amp;nbsp;YTN</t>
+          <t>미국 '상호관세 위법' 판결, 금 가격엔 어떤 영향?&amp;nbsp;&amp;nbsp;지디넷코리아</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 20:55:00 GMT</t>
+          <t>Mon, 23 Feb 2026 04:48:14 GMT</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiXkFVX3lxTFBSRmVOeG5LeHFKbVVqSVJTeEg1d3FsTThCU19ZdUVHZUthS1RZQ3NmTzBqUFB1VnREVFVSOXlxSFlrUjM5ZWFKMHF6YmtYVEJjOFRYcGkyV1EwWVFRUUHSAYMBQVVfeXFMT1o5SWVVUzcxTExGTzU0blRIMHR0eGtTMDRwSUdCX29DVGpINVY2cmJfMTVLaEF4NTc2bXN2WVRnVE40bGNvbkZjbEktSmpVaHBaVzBOZnRPUDhrR0R1eWdvbVE5Tmx5eVdxcnBGQVR2TnB2SjlDZkN5c3FJTnk0QkZGNE0?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiVkFVX3lxTFBJZmh2Si16dHJIZHZZUFlrbl94ZEFfWDZ0WXkwNnFKSExYelpLbjl3elhjNzk4WndPbENreFgyazcxcFo5OUxJelpBXzVISlFBZlNJMVp3?oc=5</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -846,22 +846,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>트럼프 "대법원 결정으로 장난치면 더 센 관세" - v.daum.net</t>
+          <t>뉴욕증시, 변덕스러운 관세·AI 파괴론에 '휘청'…하락 마감 - 연합뉴스</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>트럼프 "대법원 결정으로 장난치면 더 센 관세"&amp;nbsp;&amp;nbsp;v.daum.net</t>
+          <t>뉴욕증시, 변덕스러운 관세·AI 파괴론에 '휘청'…하락 마감&amp;nbsp;&amp;nbsp;연합뉴스</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 21:19:15 GMT</t>
+          <t>Mon, 23 Feb 2026 21:49:30 GMT</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE9oN2xVa1g3eWVIYjFqMmhjaHpYanlzdjlsTG9zSVlwbzY2V3NYalRIT2hzU3NPMzRpZkppU2NRZmdUSl9FcEM0QVFWX0c4Yzg?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE15eS1jaVJrcXNBTTR2dU5zXzIxR0tCVDlGWnNQdDh1VFZQZmNDWG9mbFVmYXFfMlRIWGwxcUdsNXFhY0VoLUhGMVJ5RHVaTEtHWTZsbkZicndTclXSAWBBVV95cUxNcDY5Tnd5ekpZWmhwTC1wTTZpaWVyMUo4WHIyVG0xTjRQcnZKRUJZbHJlX0FueG0tbFNyOFhCc1dGREFieGpHeUVkaUphUDlvQUFpb01CMGd0em0wSXB6bE4?oc=5</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -883,22 +883,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>트럼프 "대법원 결정으로 장난치면 더 높은 관세" - 연합뉴스 한민족센터</t>
+          <t>뉴욕증시, AI 공포 투매ㆍ관세 판결 타격에 1%대 하락 [상보] - 이투데이</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>트럼프 "대법원 결정으로 장난치면 더 높은 관세"&amp;nbsp;&amp;nbsp;연합뉴스 한민족센터</t>
+          <t>뉴욕증시, AI 공포 투매ㆍ관세 판결 타격에 1%대 하락 [상보]&amp;nbsp;&amp;nbsp;이투데이</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 20:33:31 GMT</t>
+          <t>Mon, 23 Feb 2026 22:16:00 GMT</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMidEFVX3lxTE5sNEd0elhsdklfYTB2Z2pnMXJvWmtFT0E4cC1tNGJ5VEZwVmYtVHcxbE5YSTlldEFjZVpZd2dlalhkM2dSdUVXM0lqUURiY3dUdDVqcFRXOUdtekJLUm9STjAwNmkzeXVMVGU3cnEwWkREWWE4?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiVEFVX3lxTE0tdGhYeG55TWpKZlJocVZyemVyeS1ONHFTc3FWQXNXZS1jOVA1LS0tTmlFQkV5d1REYXhQd0Q1N2R2bXF5SDFOSEtRWThpSTc0TE1UYg?oc=5</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -920,22 +920,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[뉴욕증시] 트럼프 관세 불확실성에 3대 지수 하락…’월가 공포지수’ 급등 - 글로벌이코노믹</t>
+          <t>AI 실업 공포·관세 리스크에 뉴욕 증시 급락 …다우지수 1.7%↓ - 한겨레</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[뉴욕증시] 트럼프 관세 불확실성에 3대 지수 하락…’월가 공포지수’ 급등&amp;nbsp;&amp;nbsp;글로벌이코노믹</t>
+          <t>AI 실업 공포·관세 리스크에 뉴욕 증시 급락 …다우지수 1.7%↓&amp;nbsp;&amp;nbsp;한겨레</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 21:24:54 GMT</t>
+          <t>Mon, 23 Feb 2026 23:58:00 GMT</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxPYjZkLWU1N3NVa1NvX25wLU5UNHgzQUIyVFY3M056ay1fdTUyMzc1VnhaLWNqUlFQSXVMMkx4c0VZMDNPZ0E4eURJVm1EWWdTb1hPRzVVcnhQa3RmelY0Z1R4cDZmNkh4N2Z1UFhIN3VQNnItQl9qeDluTEVjb3RKOEdPWFpKWXFR?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE5oRzJkbzVrVWlrbDFVTTFJb3pWSEY4Wk5pQjgwaDZ0WEl5UjhjNHpLcW9VRm9fNTI0b3JQblNhMkJ3TWJuQjhxc1ZSWkl6dzV1QWZDZFc2dUw5eGRHZTdhVDduY1RTT2FqMzQtdzdkdw?oc=5</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -957,22 +957,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>"메모리 때리면 美가 손해"…반도체 관세 현실화 낮아 - 딜사이트</t>
+          <t>비트코인·금 ‘디커플링’ 심화…관세 충격에 폭락한 코인, 금·은 구리는 활짝 - v.daum.net</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"메모리 때리면 美가 손해"…반도체 관세 현실화 낮아&amp;nbsp;&amp;nbsp;딜사이트</t>
+          <t>비트코인·금 ‘디커플링’ 심화…관세 충격에 폭락한 코인, 금·은 구리는 활짝&amp;nbsp;&amp;nbsp;v.daum.net</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 23:02:48 GMT</t>
+          <t>Tue, 24 Feb 2026 00:31:24 GMT</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTFBXTFFuMXkybHRGZFAyODRneV8zMWdfLTd3SUtPSXpWWDJaS2VFVXBQMjgwME4xdTR4YTgwNVVGUVQwc1VxYXlyQlVTN2ZTc2M?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTFBBUkY0dE5fYVR1d0RTY3VvOFhuUFZWYU53VTdzZVAzbVE3QmFMY0RnQjJSNlU2dElGVi1SeWJHWWRFQkUyLTJvbi1PVFZNOW8?oc=5</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -994,22 +994,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>미, ‘상호관세’ 24일 0시부터 징수 중단…위법 판결 3일 지나서야 조처 - 한겨레</t>
+          <t>비트코인 9559만 원대 하락, 트럼프 '관세 위협' 재점화에 투자심리 위축 - 비즈니스포스트</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>미, ‘상호관세’ 24일 0시부터 징수 중단…위법 판결 3일 지나서야 조처&amp;nbsp;&amp;nbsp;한겨레</t>
+          <t>비트코인 9559만 원대 하락, 트럼프 '관세 위협' 재점화에 투자심리 위축&amp;nbsp;&amp;nbsp;비즈니스포스트</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 10:03:00 GMT</t>
+          <t>Mon, 23 Feb 2026 23:34:16 GMT</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE5EdXJabEFVdFVPbmJOZkN3R0FCb1ZuOHJuLTBnVmZxR1I0RnVZMURCSlhaVzJpUTdVNnZTNWtFVDFOdG1CVkNwZVliTXozN0pJaXVYczZ0M1FZLUtoZGhLOGtRTWFTbW9GTzdIem1ESQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE91ejNmOU5sY3ZaNTNpcHE1YnI0M2thMnlOeGVTeDlONlJ3eVU2Y2ZFdE84ekJBdHdwa1hXb2FqbmxRSEFTRjRIQnJOTDVwazhJQ2FEeGM0bGpJNmFIT1djYnd2azVMcVBpNVVWRm91Ynl6RGc?oc=5</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1031,22 +1031,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AI·트럼프 관세에 대한 우려가 흔들었다…뉴욕증시 동반 하락 - 조선일보</t>
+          <t>비트코인 '관세 불확실성'에 한때 6만 3천 달러 선마저 붕괴 - YTN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AI·트럼프 관세에 대한 우려가 흔들었다…뉴욕증시 동반 하락&amp;nbsp;&amp;nbsp;조선일보</t>
+          <t>비트코인 '관세 불확실성'에 한때 6만 3천 달러 선마저 붕괴&amp;nbsp;&amp;nbsp;YTN</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 21:21:00 GMT</t>
+          <t>Mon, 23 Feb 2026 21:13:00 GMT</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMingFBVV95cUxNZjFJWE51WnhUbmlBb2tvNjBXZlY2VWNnM3E2UHdyNUFiRUJsdUJLdVN6OW5hWS1LTmVteXNmUDAtcGRaYUNxQ2lzNmhWT3Q5N0pOLVJmQ3FKczJjMkN1QUVscnU4dmlZLTFwWHI5bHVTZWJJSThEYVhyVXVRZG9LQktCZGNCZnFCeW9iT1haVmk0UzR3a2FUWVB4N1h0d9IBsgFBVV95cUxPOEhTUXVLWE1lN0VPRGdmYzJwelZyQThQV1ViRzFwTkhSYWhaM1Rjb2Y0ZXFFdVJMQWEwM2J4ZXdWQUpQck12dnl4cW15VGN2WVlzNFdqWEhpLXlsMlRBQXo3REVQWHhtVml3NFZPZG9ZM0lwV1FDRjdLWWZvcTZiMVVwZ05PRzZ2Q2dma3BFX05fTnFaZEdZNldVekJaSWJuTXYyeWZEUUdhbTRkMThFV0Jn?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiXkFVX3lxTE8yU1lienk4TjF2UmFrSmZrOGUxekxsVTB0Q0FCb05rRnVOVGlHUVRYbjBOZ2taUDN2SDhJYVIxSDgxeEdOaVNNUTcyeUJjN2pFVUtyTHpvTnlGTnpGd0HSAYMBQVVfeXFMUEZRUXRsT3M0a2U1YV9yUHhXLVN2RFp2dFJtMVZMVGp1RUJIR2ZEbm40UGVldVVrWllUWlZJXy1FdUpxRUo3enlYM1lCdXA0NnNQcHQyeENIMHpnWVpLWmxDMEtScS1tV0hKZUJrbV9HR09xZG9sbFdxMkpLeXVBMkptUTQ?oc=5</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1068,32 +1068,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>"브라질·중국 웃고, 한·일 운다"…트럼프 새 관세 경고 왜 - 중앙일보</t>
+          <t>‘트럼프 상호관세 돌려줘라’…美 민주당, 관세 환급 의무화 법안 발의 - 문화일보</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"브라질·중국 웃고, 한·일 운다"…트럼프 새 관세 경고 왜&amp;nbsp;&amp;nbsp;중앙일보</t>
+          <t>‘트럼프 상호관세 돌려줘라’…美 민주당, 관세 환급 의무화 법안 발의&amp;nbsp;&amp;nbsp;문화일보</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 02:15:11 GMT</t>
+          <t>Tue, 24 Feb 2026 01:39:40 GMT</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiVkFVX3lxTE9aQmFtakk5anNOVmdWY3BpZ0lvcldUVmpjaFM2N2R5RWpJa0FKeGZVelBpSmpuRzR2am84bnU1akR6ZlU5NEJfb2ZySk9wOTh1NUgxRVdn?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiUEFVX3lxTE51TGJsQ0F5S3dWRGJDRzNqcUExWE5rRHdJdllETEUxNmZ4NjJMdlVNLTZRUjhyN0s2NTFoYjZUUUtIUFo3NVFrTDEwcUFyWWxy?oc=5</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>중</t>
+          <t>하</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1105,22 +1105,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>꼬이는 트럼프 15% 관세…되레 중국 수혜, 우방만 ‘타격’ - 한겨레</t>
+          <t>'관세·AI파괴론'에 흔들린 美증시…코스피도 보합권 등락[개장시황] - 뉴스1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>꼬이는 트럼프 15% 관세…되레 중국 수혜, 우방만 ‘타격’&amp;nbsp;&amp;nbsp;한겨레</t>
+          <t>'관세·AI파괴론'에 흔들린 美증시…코스피도 보합권 등락[개장시황]&amp;nbsp;&amp;nbsp;뉴스1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 04:42:00 GMT</t>
+          <t>Tue, 24 Feb 2026 00:26:54 GMT</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTFBqeHRGTmZteUZJa2Z5VVNwUjBwYndNSHdGNTR1U2U1bm5CQlNYZ21GbHR5Nl9uYzFlV3E1UnA1V01kSTJOMktOLUNHcHIwZWdVQkdHQVJsWHplbWQ5UEtIVWxjYjhEc2NvY2M3WQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTFB5blFXZU1TOTVSZnF2U1lpdFA5amhrZXk5TzQ1dWJtd3NHSkcySUVzMVRBNkc5NUMta0VsWlRTd2g2SDM4d0s1ZHdJUENnWWlRdklxM3c2N09BSkE?oc=5</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1142,22 +1142,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>트럼프, ‘무역법 301조’ 발동 태세…대법원도 막지 못한 ‘관세 폭주’ - 한겨레</t>
+          <t>[오늘의 투자전략] 트럼프 관세 재압박·AI 불안…코스피 6000선 앞두고 숨고르기 - 이투데이</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>트럼프, ‘무역법 301조’ 발동 태세…대법원도 막지 못한 ‘관세 폭주’&amp;nbsp;&amp;nbsp;한겨레</t>
+          <t>[오늘의 투자전략] 트럼프 관세 재압박·AI 불안…코스피 6000선 앞두고 숨고르기&amp;nbsp;&amp;nbsp;이투데이</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 02:38:00 GMT</t>
+          <t>Mon, 23 Feb 2026 22:53:00 GMT</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTFBscEZmZDdkUl9uN1YycmJrQnZCN0JoSkMtWTVEbkRBbXNYUDB1VEVMa25xTEVaOVpBeldDYUVjV3Z4UWRPX3lndHJRUWlhZXl5dERtNTFackhZaHQyTGpmdUd4UFRIcmRmV2dMUXMwYw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiVEFVX3lxTFB5Vl9RWWhYeXhyS1Bxd2R3NnY0VHNzQlJhTkxxa0p5VFdYN3V2ODFaU0Q1N1JmU3VwbXE2UERmcFMxZHJzYXIyNGpJQW8xUThWelBqRA?oc=5</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1179,22 +1179,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>골드만삭스 "트럼프 관세 무효화에도 물가 내리지 않을 것" - v.daum.net</t>
+          <t>"육천피가 코앞에"‥관세 외풍에도 또 사상 최고치 - MBC 뉴스</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>골드만삭스 "트럼프 관세 무효화에도 물가 내리지 않을 것"&amp;nbsp;&amp;nbsp;v.daum.net</t>
+          <t>"육천피가 코앞에"‥관세 외풍에도 또 사상 최고치&amp;nbsp;&amp;nbsp;MBC 뉴스</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 21:06:08 GMT</t>
+          <t>Mon, 23 Feb 2026 21:47:23 GMT</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE1iVlJmZUFSYy0wMGVkVko4MzFsSFN4aFduOThkWkU3THJ1TDJpbDVkLWlPQUQwLTlyZ1dYQTJjUVNaVTJIYVJORlNwMC1KUWs?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiekFVX3lxTE9zcFJrcEZMY3gyUnFOMHJ6Q0J5OFdUbHN3bDJIMDNzQUM2Y2xPWVJEWEtES21lXzM5dFVBZkg0SWF2b3NNTWtJMGpRd2tPdEFJQmNYVHBIZTRON1hzS3ZLQVZhUGcyNjJlOVFwSXpXMmd4Z2pqWUI0UTZn0gF6QVVfeXFMUEpaNGZ2TnoyVWRvMkFnX21POTNhbjNvS0dPRXVMQlRpcF9oUkJlTC0ydmMwR2dsSmhMOFhHY0ZiTHctUHZtTFpmWFk2d3p4Wk9GOU1CTlp5d0tUVHB1bXVlZW00T0tYWHR1UDhCN1R1QjViLWtpNHZKTHc?oc=5</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1211,27 +1211,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FTA</t>
+          <t>관세</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>브라질 닭과 한국 맥주... 李·룰라 치맥 “FTA 열자” - 조선일보</t>
+          <t>‘모든 수입품’에 15% 관세…세계 무역질서 뒤엎은 트럼프 - 한겨레</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>브라질 닭과 한국 맥주... 李·룰라 치맥 “FTA 열자”&amp;nbsp;&amp;nbsp;조선일보</t>
+          <t>‘모든 수입품’에 15% 관세…세계 무역질서 뒤엎은 트럼프&amp;nbsp;&amp;nbsp;한겨레</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 11:59:00 GMT</t>
+          <t>Mon, 23 Feb 2026 08:14:00 GMT</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMikAFBVV95cUxOZDdaNUVPX0tXeUFkZFBKVkNyVER4SVR3UVd2dzJqLXhWX3VKdVBfUVkxNGhCNm5EUjlmX1FHZUo0NVFMYW84Mmp4bUttbHJuNHFXalpPN09qNmRQYmVrZjNPOS1UUDBjNzhvc1oxdUE5YzktaGphMC1LSjJKQTRoeDZMbWFJZlNxUnJNZi01RVPSAaQBQVVfeXFMUHYyX2JmVjFPbm11TlpXSEtkM0ZSd0hlYi12R2lfS0V1c0o0Sjl3YzFYZE1BTnAtS3ItbkVWQmdtSjlOV0UxcTdUQ2x4bnpyYm1ieUtmSi0xR2lrRXFwMHhGaHFiaV9VekNMMDVzZkswbl85MXVQdDBJY19BRHVEZHZDZ2stczBxUDdGbTEyZ2RGWHB4a0tvNWpKTFBYeFlnaUxjam0?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE1HX3c4bVlqY0lLRklmbUZIUjM3N3ZRalZ6SnQ2TExWTEhKT3E4YzBkaS1WTGROc1JRNkZ5X19fbUpCZDh2MFp0VW9HRDFZWUVjV1Q5SWkyRU5jTXpyTXJHTG5zOU9fWDRvVDlhVHp1RQ?oc=5</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1241,34 +1241,34 @@
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FTA</t>
+          <t>관세</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>경북동부FTA통상진흥센터, 올해 FTA 컨설팅 수행전문가 POOL 모집 - gukjenews.com</t>
+          <t>CNN “트럼프 ‘플랜B’ 122조 관세도 위법 좌초 가능성” - 조선일보</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>경북동부FTA통상진흥센터, 올해 FTA 컨설팅 수행전문가 POOL 모집&amp;nbsp;&amp;nbsp;gukjenews.com</t>
+          <t>CNN “트럼프 ‘플랜B’ 122조 관세도 위법 좌초 가능성”&amp;nbsp;&amp;nbsp;조선일보</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 06:52:58 GMT</t>
+          <t>Mon, 23 Feb 2026 22:06:00 GMT</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMibkFVX3lxTFB6UWR2NFZWMVVYSy11M0dxN2NqaWJ4V0dpR0Y4NjJfbHdySVp1VzJybm4teVBGanZXU2lNRzZ0U3ZRRGZJcWJ4NUY0cVhIMlBCQlFGV0tXTkhld2xla3p2Wk5hUVphMmJmSHBoMmZR?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMingFBVV95cUxPaFU0V0ZxRDhQempwTlZIVFRCcHdUUkM3UHFLM0RUaWlzZmNCRktsYnRWamJiUEh4djJsdFYtbU1STGF4ZG9hT0dOcllmMy1tWFlXZTNJZFVLWjRrUnBTakJLdWo3R3pwNVFYVVhSeVlCWkM2NFYtdWowNUFOR1ZzcjgtLWt3a0hOVTNSUVJLSXU3UFptUERHYjlXU0V6Z9IBsgFBVV95cUxPT3lodzFHemdaNnl6Nmdhb3YyM1NtSVRJNXk2cS13MGt5U2QyUGl5RXMxV0oxekVueEhGWlJucHBSWWxEMDJjQXpmbDFPc240Zk5MNDc0R2lGMENoN0wzQzFfVFJtV3NSRjFIWGNsWHdYbklHbG50OWxFVzJtR3EzUnVGdlJtREliSlU0RU9uT0xZT2pEcUZHeWlMWlNydDVaSjZxelFZZkJjcktiTEZKdDRB?oc=5</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1278,71 +1278,71 @@
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FTA</t>
+          <t>관세</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[슈퍼 301조 경고등] 발동 땐 한미 FTA '실효성 시험대'…관세 압박에 사면초가 - 네이트</t>
+          <t>무역협회·부산상의, 미국 관세 위법 판결 대응 설명회 열어 - 한국무역협회-KITA.NET</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[슈퍼 301조 경고등] 발동 땐 한미 FTA '실효성 시험대'…관세 압박에 사면초가&amp;nbsp;&amp;nbsp;네이트</t>
+          <t>무역협회·부산상의, 미국 관세 위법 판결 대응 설명회 열어&amp;nbsp;&amp;nbsp;한국무역협회-KITA.NET</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 07:26:00 GMT</t>
+          <t>Tue, 24 Feb 2026 00:00:54 GMT</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE9lZ3d0MFFHaXhvMlRFTDNHRmEtTnJTQk1KUmpSOWVpc0M2cl9nTEwxRWZDMWI0RFhsY0NidU0tSzNwMDIzcEJEbklKdXBUeS1ZdE5sekQxR3BLT2pwcFpLUg?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxOdFlXVEFmcU5iZTFsSzVEaUU5QnRnTE5NZ3liZEd5WVZWTG5vcDRiUDVzTGNmc2VTWUNKOWk2SWFSeG1qM0hNYW5hLUZXbmN5ZjAxLXdIZWprZGZTZklmUHVFb1JqVm4wb3VpLWl0YlQzRGZVWlJ4TUVwWi1kcnRIcEx6QTBQT2ZSakpUanUtY1E3Q1daMTU4ZHo5bTk4cnEyQkFEbG5iVVhxamdoNVdpazktVnBaS25UQjdhZHFXbHB3dlotTjlNNXk4cFFicExMdldRcw?oc=5</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>중</t>
+          <t>하</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FTA</t>
+          <t>관세</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>'FTA 불모지' 브라질과 경제협력 강화…수출시장 다변화 박차 - 뉴스핌</t>
+          <t>美 상호관세 위법 판정에 바빠진 수출업체들…관세 환급 가능할까 - 연합인포맥스</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>'FTA 불모지' 브라질과 경제협력 강화…수출시장 다변화 박차&amp;nbsp;&amp;nbsp;뉴스핌</t>
+          <t>美 상호관세 위법 판정에 바빠진 수출업체들…관세 환급 가능할까&amp;nbsp;&amp;nbsp;연합인포맥스</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 07:55:00 GMT</t>
+          <t>Mon, 23 Feb 2026 23:07:32 GMT</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiXEFVX3lxTFB0S1JVYWxKeHRpQmJmSmwzRzRxZnJOOWR3QVhvZFBvZF9LN2dHc3NyNkFnUFRLb1NkdTJGQWM1aWluOEt4VTJCYU9WbkxSQW5Bb0ZUR3R4NDIzVnpS?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMicEFVX3lxTE56NTBxVmo4MmtRX1pMOTNsUWMyM0FtOTFESzA3TW1KT2dMb2NyWllBVjFkLVZfTENBLUpnZnplTzZzZGU4Mm91OGNvTHY2VGcxZmRmUVBmQ3hZZllSdnZSS0s3WmFEOGxRQVkzaHp5Zk4?oc=5</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1359,27 +1359,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FTA</t>
+          <t>관세</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>안산세관, 수출기업 FTA 활용지원 교육 실시 - 신아일보</t>
+          <t>미 상원 민주당, ‘위법 판결’ 트럼프 관세 환급 법안 발의 - 인천투데이</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>안산세관, 수출기업 FTA 활용지원 교육 실시&amp;nbsp;&amp;nbsp;신아일보</t>
+          <t>미 상원 민주당, ‘위법 판결’ 트럼프 관세 환급 법안 발의&amp;nbsp;&amp;nbsp;인천투데이</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 07:43:44 GMT</t>
+          <t>Tue, 24 Feb 2026 00:58:35 GMT</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMicEFVX3lxTE5rNWNQcTJ4eXlxb2Y5ZllfdkppUE4zSTNrLTZWNEJ4aS11cnZ1UlhLYjYydHpycV9VNzMtZ21GVnVhRkVOX3A0cFBOU0NxckV1S19pWFN3eXZlRFFMZUtONHhlaUVVd1ltZXQ1cy1nT24?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMicEFVX3lxTE9KSGp6SVRFSXB4NWxaN1BNREpnYy1xUGY3NjZQdXp0bGVEVHBjUXpIV29SdV9hYS1aNW5vRlJhcXE4d0I2bGNCVWRhY0lhZ1RjV2dYSkFGTW90S2tnNzFYT1NNTkRsdVU0NmpZLVE0VVI?oc=5</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1389,71 +1389,71 @@
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FTA</t>
+          <t>관세</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>구윤철 "FTA 체결국 韓, 관세 유리한 측면 있어" - 매일일보</t>
+          <t>트럼프 "장난치는 국가에 더 높은 관세" - v.daum.net</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>구윤철 "FTA 체결국 韓, 관세 유리한 측면 있어"&amp;nbsp;&amp;nbsp;매일일보</t>
+          <t>트럼프 "장난치는 국가에 더 높은 관세"&amp;nbsp;&amp;nbsp;v.daum.net</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 07:08:59 GMT</t>
+          <t>Mon, 23 Feb 2026 22:45:25 GMT</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiZEFVX3lxTE1wdE5UR3hYR3BNZFU2eDNZUlE3cUVJcnUzRnhNSWx0WDRSOTlyXzlPSU01MzdiVmZQb2s2VE9vNTZMV2k4eDBzNFhPT1BOdjZtREZNR08tR0NaQWNRTmk1ZzRlems?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE5qZ3FZd0hUUFhpajQzM2RRUGdZU0FzUnFQTEVwRDV1bEZBOW9SOGY2RmVJN00xVzN0Ul9pSkFpNy1PZjhNVHlOWmZyYWRZNTg?oc=5</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>중</t>
+          <t>하</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FTA</t>
+          <t>관세</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>포항상공회의소, 2026년 FTA 컨설팅 수행전문가 POOL 모집 - 위키트리</t>
+          <t>트럼프, 연일 관세 으름장…쿠팡 대표 美의회 출석 - 연합뉴스 한민족센터</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>포항상공회의소, 2026년 FTA 컨설팅 수행전문가 POOL 모집&amp;nbsp;&amp;nbsp;위키트리</t>
+          <t>트럼프, 연일 관세 으름장…쿠팡 대표 美의회 출석&amp;nbsp;&amp;nbsp;연합뉴스 한민족센터</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 06:04:00 GMT</t>
+          <t>Mon, 23 Feb 2026 22:33:00 GMT</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiVkFVX3lxTE5idUpnNVdrc1gtZWFEblF5aXROcDZsV0ZuYzljRnF0dGlSdmJfZkhPZzFWLWpWUDdUWlJWMlkyZ3lDNE1ETDR3ME9yb0JXMGxTLWNQbXNB?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMidEFVX3lxTE94d09fN25YS0l6bXMzWVEyM2ozdFJacUdBT0xPbmprXzV3WE8wcUphaFBQYUUxRWhvUzY5eDRFMk9tc1ZQaUlzU2xMMGhvZ0M5NFd4M3VjRkJ6V0xhRWJSc0lkS0drSUxEM2EyZzlZS1JuRGVf?oc=5</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1463,34 +1463,34 @@
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FTA</t>
+          <t>관세</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>경북동부FTA센터, 수출기업 지원 전문가 모집 - 글로벌경제신문</t>
+          <t>[THE VIEW]관세 전쟁은 끝나지 않았다 - 아시아경제</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>경북동부FTA센터, 수출기업 지원 전문가 모집&amp;nbsp;&amp;nbsp;글로벌경제신문</t>
+          <t>[THE VIEW]관세 전쟁은 끝나지 않았다&amp;nbsp;&amp;nbsp;아시아경제</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 06:49:35 GMT</t>
+          <t>Mon, 23 Feb 2026 23:12:00 GMT</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTE5NdFdLTzNmR1lILXRqdm1McVJtWnZmbTd0Qzl4TzRhdnBkTzNZSmw2cEJlWG54cmNrUTBFLW54MW4zeHZ2Ylh3SlZMZHZxX0Q4M2VNT2Z0ZnlJT1RMN2FvNXY5VnJ1dGgwNnJnUtIBcEFVX3lxTE9zWTRzWWJhaWVtaUJOUmc2Zm5OZmhRSTl2Wk1sNXZuUXRpNWlFVUVXUU1uTDYzQ2ZRa2RiLUtGVi0wV3B5OUF2WGU4YlJYZUNFXzFhVHlOZ3VObURTbG9rOFJOb3VoVXNoRTBUaGF1Z2I?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE1Kc2VqdWNFUUVCbHdrems5UVJKdDlQZEtVSHc2c0hjVExwTm8zQ01FaWZ3TXZicUpxcjl0akc5NjBFUWxKcFRFLVluNjAzcTB4QXFiRjBiTlVIQThDWTRRMw?oc=5</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1512,32 +1512,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>재경위 '관세 무효' 관련 현안질의… 구윤철 "美관세 15% 부과 시 FTA국 유리" - 메트로신문</t>
+          <t>구윤철 "美관세 15% 부과 시 FTA국 유리…MOU는 지킬 것" - mt.co.kr</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>재경위 '관세 무효' 관련 현안질의… 구윤철 "美관세 15% 부과 시 FTA국 유리"&amp;nbsp;&amp;nbsp;메트로신문</t>
+          <t>구윤철 "美관세 15% 부과 시 FTA국 유리…MOU는 지킬 것"&amp;nbsp;&amp;nbsp;mt.co.kr구윤철 “상호관세 무효, 불확실성 커…FTA 체결국으로 유리한 측면”&amp;nbsp;&amp;nbsp;한겨레부산FTA통상진흥센터, IEEPA 관세 대응 설명회&amp;nbsp;&amp;nbsp;뉴시스</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 07:17:18 GMT</t>
+          <t>Mon, 23 Feb 2026 07:21:07 GMT</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE93RU9yT285SDZWWGptOTFPSzFxeGpaRVJIdzlZellKM2lOall0cUwxaFZYQzdpbkdyVXJqZmFnWFNPR2FNaFhTMk51ZnFveDF5dnVMaEROdmlRS2ZvQXJwYQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMia0FVX3lxTE5GWUJET2VwTUxpU1pQSnY3MUlJOFNHQm16aW1VbVZmZ2RIMGQxT2ZtNk00RlgwWUtjWjZOZGJkNjlCN2xzeEdIUk1YREZWYWpRMjZLcXFZRUU1MF9fZllzd2UxYjlkUFF4SzVJ?oc=5</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>중</t>
+          <t>상</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1549,32 +1549,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>무협 "美 새 관세 구조로 FTA 체결한 한국 제품 경쟁력 회복 가능" - 연합인포맥스</t>
+          <t>브라질 닭과 한국 맥주... 李·룰라 치맥 “FTA 열자” - 조선일보</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>무협 "美 새 관세 구조로 FTA 체결한 한국 제품 경쟁력 회복 가능"&amp;nbsp;&amp;nbsp;연합인포맥스</t>
+          <t>브라질 닭과 한국 맥주... 李·룰라 치맥 “FTA 열자”&amp;nbsp;&amp;nbsp;조선일보</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 05:47:58 GMT</t>
+          <t>Mon, 23 Feb 2026 11:59:00 GMT</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMicEFVX3lxTFB3RVFpTzBrcHVDc1ZyX3F6ZkY0dklrTmRCYk1mcHpuQ0kyZFVVVUlyd3hSd01PaWwzNXpwUHZmTFZhUzdsZU9RV3hCYXdWQnF0TklBSlFDQm5iNGZ0QUZyNHpkVWdQWWJTdmxYTnF0XzY?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMikAFBVV95cUxOZDdaNUVPX0tXeUFkZFBKVkNyVER4SVR3UVd2dzJqLXhWX3VKdVBfUVkxNGhCNm5EUjlmX1FHZUo0NVFMYW84Mmp4bUttbHJuNHFXalpPN09qNmRQYmVrZjNPOS1UUDBjNzhvc1oxdUE5YzktaGphMC1LSjJKQTRoeDZMbWFJZlNxUnJNZi01RVPSAaQBQVVfeXFMUHYyX2JmVjFPbm11TlpXSEtkM0ZSd0hlYi12R2lfS0V1c0o0Sjl3YzFYZE1BTnAtS3ItbkVWQmdtSjlOV0UxcTdUQ2x4bnpyYm1ieUtmSi0xR2lrRXFwMHhGaHFiaV9VekNMMDVzZkswbl85MXVQdDBJY19BRHVEZHZDZ2stczBxUDdGbTEyZ2RGWHB4a0tvNWpKTFBYeFlnaUxjam0?oc=5</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>중</t>
+          <t>하</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1586,32 +1586,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>경북동부FTA통상진흥센터, FTA·원산지 컨설팅 전문가 POOL 모집 - 경북일보</t>
+          <t>경북동부FTA통상진흥센터, 올해 FTA 컨설팅 수행전문가 POOL 모집 - gukjenews.com</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>경북동부FTA통상진흥센터, FTA·원산지 컨설팅 전문가 POOL 모집&amp;nbsp;&amp;nbsp;경북일보</t>
+          <t>경북동부FTA통상진흥센터, 올해 FTA 컨설팅 수행전문가 POOL 모집&amp;nbsp;&amp;nbsp;gukjenews.com</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 10:09:56 GMT</t>
+          <t>Mon, 23 Feb 2026 06:52:58 GMT</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE9Ya2FzblFtMUJzeWZoQzRKd3ZYWDhhTWpRc0htaVRWOFVzb2RQWTNRN1ptdzBQYl91OTlFTWVQSThLQWhuNG0yd0x6X3R4U2xKRlNhbkc1OEYxc1V2QUJxanlla0pvNXdmQ2VHVHRwRQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMibkFVX3lxTFB6UWR2NFZWMVVYSy11M0dxN2NqaWJ4V0dpR0Y4NjJfbHdySVp1VzJybm4teVBGanZXU2lNRzZ0U3ZRRGZJcWJ4NUY0cVhIMlBCQlFGV0tXTkhld2xla3p2Wk5hUVphMmJmSHBoMmZR?oc=5</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>중</t>
+          <t>하</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1623,22 +1623,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>구윤철 “미 관세 15% 부과 땐 ‘FTA 체결’ 한국 상대적 유리” - 경향신문</t>
+          <t>[슈퍼 301조 경고등] 발동 땐 한미 FTA '실효성 시험대'…관세 압박에 사면초가 - 네이트</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>구윤철 “미 관세 15% 부과 땐 ‘FTA 체결’ 한국 상대적 유리”&amp;nbsp;&amp;nbsp;경향신문</t>
+          <t>[슈퍼 301조 경고등] 발동 땐 한미 FTA '실효성 시험대'…관세 압박에 사면초가&amp;nbsp;&amp;nbsp;네이트</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 11:29:00 GMT</t>
+          <t>Mon, 23 Feb 2026 07:26:00 GMT</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiWkFVX3lxTE8tZWFqcDdpSGZHN08zc1Uta0UyT3ZPVHZLRlNjZnMybDE1VmF5Uk0yeU55VW92cmtPNlZxWnk0MUNuV2dEV2Y3M25GQUVpZ0F2QW9ucW5OTHhiUdIBX0FVX3lxTE41MTFvOVNTNm0wams0cXZqb3R0OHdqSVhpblRYMHBDemlNcENaemxBOUZyaVJ5VFNfS01SYi0tUlBHVFZwdnR4TE03WnR5WF9xajM5QTZPU0NiaE1VYWtn?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE9lZ3d0MFFHaXhvMlRFTDNHRmEtTnJTQk1KUmpSOWVpc0M2cl9nTEwxRWZDMWI0RFhsY0NidU0tSzNwMDIzcEJEbklKdXBUeS1ZdE5sekQxR3BLT2pwcFpLUg?oc=5</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1660,22 +1660,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>포항상공회의소, FTA 컨설팅 전문가 모집...3월3일까지 접수 - 이로운넷</t>
+          <t>'FTA 불모지' 브라질과 경제협력 강화…수출시장 다변화 박차 - 뉴스핌</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>포항상공회의소, FTA 컨설팅 전문가 모집...3월3일까지 접수&amp;nbsp;&amp;nbsp;이로운넷</t>
+          <t>'FTA 불모지' 브라질과 경제협력 강화…수출시장 다변화 박차&amp;nbsp;&amp;nbsp;뉴스핌</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 09:39:53 GMT</t>
+          <t>Mon, 23 Feb 2026 07:55:00 GMT</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiZkFVX3lxTE1iR19HZ2lvc1VnQng4N0E3NFlCVDJjWFh5QlFWcE9xQmsyWE5MYTU3a1lmQm5QOUdDejVueEdtRmt4MGZNbEc4T3RQU3k1R04wQTA3S3RQcDdKQlg4M1ZYUWFDNTAtdw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiXEFVX3lxTFB0S1JVYWxKeHRpQmJmSmwzRzRxZnJOOWR3QVhvZFBvZF9LN2dHc3NyNkFnUFRLb1NkdTJGQWM1aWluOEt4VTJCYU9WbkxSQW5Bb0ZUR3R4NDIzVnpS?oc=5</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1697,32 +1697,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>美 새관세, ‘최혜국 + 15%’ 형태 무협 “FTA 체결 韓 유리한 구조” - 중소기업신문</t>
+          <t>안산세관, 수출기업 FTA 활용지원 교육 실시 - 신아일보</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>美 새관세, ‘최혜국 + 15%’ 형태 무협 “FTA 체결 韓 유리한 구조”&amp;nbsp;&amp;nbsp;중소기업신문</t>
+          <t>안산세관, 수출기업 FTA 활용지원 교육 실시&amp;nbsp;&amp;nbsp;신아일보</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 01:00:47 GMT</t>
+          <t>Mon, 23 Feb 2026 07:43:44 GMT</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTFBIcDR2VjA4OG5yQnFWQXNhSWhyR2tpbGF1ZnZLWTg3Umt3TDBReWZvNy1nb290MVdLNUY1OGczbVZaT1RDa21neTdqVG9GUWdIY1FVUjAzRFNxeURNRnhtTDlESGlBUDJnNlVHOA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMicEFVX3lxTE5rNWNQcTJ4eXlxb2Y5ZllfdkppUE4zSTNrLTZWNEJ4aS11cnZ1UlhLYjYydHpycV9VNzMtZ21GVnVhRkVOX3A0cFBOU0NxckV1S19pWFN3eXZlRFFMZUtONHhlaUVVd1ltZXQ1cy1nT24?oc=5</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>중</t>
+          <t>하</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1734,32 +1734,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>포항상의, 2026년 FTA 컨설팅 수행전문가 POOL 모집 - 경북신문</t>
+          <t>구윤철 "FTA 체결국 韓, 관세 유리한 측면 있어" - 매일일보</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>포항상의, 2026년 FTA 컨설팅 수행전문가 POOL 모집&amp;nbsp;&amp;nbsp;경북신문</t>
+          <t>구윤철 "FTA 체결국 韓, 관세 유리한 측면 있어"&amp;nbsp;&amp;nbsp;매일일보</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 05:03:44 GMT</t>
+          <t>Mon, 23 Feb 2026 07:08:59 GMT</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiWEFVX3lxTFA5NnA0djVwZzVseXdpbVlwVWw2VmlvWnRFN2RNNUVNUE9uWHNvOThhSDMzdnJCbkpZUDVMVEdoLWx5ejM5WkhBcmFJOGgxZURaR28zd3FPZzY?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiZEFVX3lxTE1wdE5UR3hYR3BNZFU2eDNZUlE3cUVJcnUzRnhNSWx0WDRSOTlyXzlPSU01MzdiVmZQb2s2VE9vNTZMV2k4eDBzNFhPT1BOdjZtREZNR08tR0NaQWNRTmk1ZzRlems?oc=5</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>하</t>
+          <t>중</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1771,32 +1771,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>구윤철 '글로벌 관세 15%, 한미 FTA로 다른나라보다 유리' - 데일리한국</t>
+          <t>포항상공회의소, 2026년 FTA 컨설팅 수행전문가 POOL 모집 - 위키트리</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>구윤철 '글로벌 관세 15%, 한미 FTA로 다른나라보다 유리'&amp;nbsp;&amp;nbsp;데일리한국</t>
+          <t>포항상공회의소, 2026년 FTA 컨설팅 수행전문가 POOL 모집&amp;nbsp;&amp;nbsp;위키트리</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 10:16:04 GMT</t>
+          <t>Mon, 23 Feb 2026 06:04:00 GMT</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE16UXpiaC1VanpqVWRLVzRicjI4aTVPWHlHbU9KanpmS1FYcFlvRXRkbkRvQXZNVlFQcnhURVU5WmIzVEEwNVM2MmxIdmI3MnJQcW9uQzNwVnRvSS1QM2VTRlk5dTQtLTI2ZE1YLVNXQdIBc0FVX3lxTE16Qkw0NVExb2N3N2w1WVdxa0pNNVVGMzh5Zmh5amZQY3hKMldEMkVFTWFZMDNMa3ZDYVNiTTRTeFBVWVk4WEpEYU9fRUt6d0NSalhiNkJEdEp0WnRYTlhEcTM4Z3I2bTFzenNxWGxBaXpEQkE?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiVkFVX3lxTE5idUpnNVdrc1gtZWFEblF5aXROcDZsV0ZuYzljRnF0dGlSdmJfZkhPZzFWLWpWUDdUWlJWMlkyZ3lDNE1ETDR3ME9yb0JXMGxTLWNQbXNB?oc=5</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>중</t>
+          <t>하</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1808,32 +1808,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>부산FTA통상진흥센터, IEEPA 관세 대응 설명회 - 뉴시스</t>
+          <t>경북동부FTA센터, 수출기업 지원 전문가 모집 - 글로벌경제신문</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>부산FTA통상진흥센터, IEEPA 관세 대응 설명회&amp;nbsp;&amp;nbsp;뉴시스</t>
+          <t>경북동부FTA센터, 수출기업 지원 전문가 모집&amp;nbsp;&amp;nbsp;글로벌경제신문</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 06:57:20 GMT</t>
+          <t>Mon, 23 Feb 2026 06:49:35 GMT</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE1PdFctb0dHVjNlR2duZUw3RWo5Z1VnVUpFSTV5ZVZXRXRSOGNTS0VGLVdNb0FKa2hsZU5PTnBRdG9haDZLTnplbDBXSWJfYmh2b1oyMUU1Y0poNFZ6SVVLbtIBeEFVX3lxTE9oclNzb1FoakM4dkkyekN3ZXFad1JoRDhVbU1iOW85anlSLWN0SVhTVExXQTJua1IzRE9wMmtENkU1aHlWUERtcGNoRG85cHUtN2kwajNFbEo3UEVfT3NQSlV1WFlCTGo1UVIzdklQaWp5WnZ6dEFEVw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTE5NdFdLTzNmR1lILXRqdm1McVJtWnZmbTd0Qzl4TzRhdnBkTzNZSmw2cEJlWG54cmNrUTBFLW54MW4zeHZ2Ylh3SlZMZHZxX0Q4M2VNT2Z0ZnlJT1RMN2FvNXY5VnJ1dGgwNnJnUtIBcEFVX3lxTE9zWTRzWWJhaWVtaUJOUmc2Zm5OZmhRSTl2Wk1sNXZuUXRpNWlFVUVXUU1uTDYzQ2ZRa2RiLUtGVi0wV3B5OUF2WGU4YlJYZUNFXzFhVHlOZ3VObURTbG9rOFJOb3VoVXNoRTBUaGF1Z2I?oc=5</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>상</t>
+          <t>하</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1845,32 +1845,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[슈퍼 301조 경고등] 발동 땐 한미 FTA 실효성 시험대…관세 압박에 사면초가 - 아주경제</t>
+          <t>포항상공회의소, FTA 컨설팅 수행전문가 POOL 모집 - 메트로신문</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[슈퍼 301조 경고등] 발동 땐 한미 FTA 실효성 시험대…관세 압박에 사면초가&amp;nbsp;&amp;nbsp;아주경제</t>
+          <t>포항상공회의소, FTA 컨설팅 수행전문가 POOL 모집&amp;nbsp;&amp;nbsp;메트로신문</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 07:25:58 GMT</t>
+          <t>Mon, 23 Feb 2026 23:26:02 GMT</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiWkFVX3lxTE1VWmE5cm5UVXhTTUxiLWxtdnNiSk45THg3VmIta0p0M05hNGFjTWFhaEpwRlIxOVdSQTY4VWhHdHk4OGJTMFRCeFRSdlAySXBDeUh0eGFxRkROd9IBWEFVX3lxTFB6dnMzTmZ6LXRGVzRLc0FkNGZCODdGT1VYbkVzTEFKWU5ucS04WTlUOGJybWg0UUZGRVQyZlotcWZSRTRKTTJodFpIX2xOczF5LV9RQmNESDg?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiX0FVX3lxTE5KS0I2MGlIODlkTEtkWGFKekoxOGpUN0w2d0JNUjJnelN6bWNJdTBRb1c5T203Mmw2X0h3WmlwZjdjZ0JKc2JDOEdiZ3FidDNJSnBlT3FTeDdkNjhHeUVn?oc=5</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>중</t>
+          <t>하</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1882,22 +1882,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>통관·FTA·지식재산 한자리에…구미 원스톱 수출지원 본격 가동 - 경북일보</t>
+          <t>경북동부FTA통상진흥센터, FTA·원산지 컨설팅 전문가 POOL 모집 - 경북일보</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>통관·FTA·지식재산 한자리에…구미 원스톱 수출지원 본격 가동&amp;nbsp;&amp;nbsp;경북일보</t>
+          <t>경북동부FTA통상진흥센터, FTA·원산지 컨설팅 전문가 POOL 모집&amp;nbsp;&amp;nbsp;경북일보</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 08:08:02 GMT</t>
+          <t>Mon, 23 Feb 2026 10:09:56 GMT</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE1iMWt6ZGprMjY2cjE1Zi11NUozNmx6OElGYldmUWpCb0lJQWZQd2Q5M0NYSXlSWUNUSjZQaXhJMGVidW5ndW5uX3pPN1NsbTVaN3BRMlhXQ092eEgxOG1IUHVBLXAyb0pDQUN1X2M5Yw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE9Ya2FzblFtMUJzeWZoQzRKd3ZYWDhhTWpRc0htaVRWOFVzb2RQWTNRN1ptdzBQYl91OTlFTWVQSThLQWhuNG0yd0x6X3R4U2xKRlNhbkc1OEYxc1V2QUJxanlla0pvNXdmQ2VHVHRwRQ?oc=5</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1919,22 +1919,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>구윤철 "미 관세 15% 부과 땐 'FTA 체결' 한국 상대적 유리" - 네이트</t>
+          <t>구윤철 “미 관세 15% 부과 땐 ‘FTA 체결’ 한국 상대적 유리” - 경향신문</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>구윤철 "미 관세 15% 부과 땐 'FTA 체결' 한국 상대적 유리"&amp;nbsp;&amp;nbsp;네이트</t>
+          <t>구윤철 “미 관세 15% 부과 땐 ‘FTA 체결’ 한국 상대적 유리”&amp;nbsp;&amp;nbsp;경향신문</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 11:31:00 GMT</t>
+          <t>Mon, 23 Feb 2026 11:29:00 GMT</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMieEFVX3lxTE5RQ2NvMHdCNml6SGV3SmlaVVJFUFF0aUpxZG5zYjN6TUNfdXh2dktuSi0tRzFoSDR2Q085TE9LUGhFTUU3X0tfbU1JVGNLQ2FLUjB6aXVJeUlCdWRKQlNTaGtpRnljeHAta1FEYUZvaVdWUkZmekk0RQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiWkFVX3lxTE8tZWFqcDdpSGZHN08zc1Uta0UyT3ZPVHZLRlNjZnMybDE1VmF5Uk0yeU55VW92cmtPNlZxWnk0MUNuV2dEV2Y3M25GQUVpZ0F2QW9ucW5OTHhiUdIBX0FVX3lxTE41MTFvOVNTNm0wams0cXZqb3R0OHdqSVhpblRYMHBDemlNcENaemxBOUZyaVJ5VFNfS01SYi0tUlBHVFZwdnR4TE03WnR5WF9xajM5QTZPU0NiaE1VYWtn?oc=5</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1956,22 +1956,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>미 관세 구조 재조정 전망…한미 FTA 기반 수출 경쟁력 회복 기대 - 드론매거진 뉴스</t>
+          <t>무협 "美 새 관세 구조로 FTA 체결한 한국 제품 경쟁력 회복 가능" - 연합인포맥스</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>미 관세 구조 재조정 전망…한미 FTA 기반 수출 경쟁력 회복 기대&amp;nbsp;&amp;nbsp;드론매거진 뉴스</t>
+          <t>무협 "美 새 관세 구조로 FTA 체결한 한국 제품 경쟁력 회복 가능"&amp;nbsp;&amp;nbsp;연합인포맥스</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 00:33:29 GMT</t>
+          <t>Mon, 23 Feb 2026 05:47:58 GMT</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiZEFVX3lxTE14V3ZPUmVSS2RzTXlaTjA2b2d3cGZXRHFpSlowNHBnMi1sMWQzbnJYRTFGOXhfcHZqa1dwT0ZjbGYxd2NBeFFZZTBOQnliXzJPRXRkeW9XTVBEUW50VHR5XzZWTU8?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMicEFVX3lxTFB3RVFpTzBrcHVDc1ZyX3F6ZkY0dklrTmRCYk1mcHpuQ0kyZFVVVUlyd3hSd01PaWwzNXpwUHZmTFZhUzdsZU9RV3hCYXdWQnF0TklBSlFDQm5iNGZ0QUZyNHpkVWdQWWJTdmxYTnF0XzY?oc=5</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1993,22 +1993,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>포항상의 경북동부FTA통상진흥센터, FTA 컨설팅 수행전문가 POOL 모집 - 브레이크뉴스</t>
+          <t>포항상공회의소, FTA 컨설팅 전문가 모집...3월3일까지 접수 - 이로운넷</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>포항상의 경북동부FTA통상진흥센터, FTA 컨설팅 수행전문가 POOL 모집&amp;nbsp;&amp;nbsp;브레이크뉴스</t>
+          <t>포항상공회의소, FTA 컨설팅 전문가 모집...3월3일까지 접수&amp;nbsp;&amp;nbsp;이로운넷</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 06:40:01 GMT</t>
+          <t>Mon, 23 Feb 2026 09:39:53 GMT</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiR0FVX3lxTE5VVHhXX0pGc3RGRHhqakd6RnV2M3M4ZjRrc2VIakFGb3owNzlvY3QtaVpNN280eVdfOXJCT0lKZFVkZVBVZ2pN?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiZkFVX3lxTE1iR19HZ2lvc1VnQng4N0E3NFlCVDJjWFh5QlFWcE9xQmsyWE5MYTU3a1lmQm5QOUdDejVueEdtRmt4MGZNbEc4T3RQU3k1R04wQTA3S3RQcDdKQlg4M1ZYUWFDNTAtdw?oc=5</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2025,27 +2025,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>원산지</t>
+          <t>FTA</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[사설] 농축수산물 원산지 위반 증가세…근절책 시급 - 경기신문</t>
+          <t>포항상의, 2026년 FTA 컨설팅 수행전문가 POOL 모집 - 경북신문</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[사설] 농축수산물 원산지 위반 증가세…근절책 시급&amp;nbsp;&amp;nbsp;경기신문</t>
+          <t>포항상의, 2026년 FTA 컨설팅 수행전문가 POOL 모집&amp;nbsp;&amp;nbsp;경북신문</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 22:14:10 GMT</t>
+          <t>Mon, 23 Feb 2026 05:03:44 GMT</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYkFVX3lxTE5aMmUxTkluN29femE1MS1UM3ZWT05RUWJRdUFhLUhLWk44NnR4LU93QkFLcTFWemFCQ1pQN2JKYTJmUkxTWGFDRjctaW5ndjBQN2l3azZhNk1yVldacFd3S2Fn?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiWEFVX3lxTFA5NnA0djVwZzVseXdpbVlwVWw2VmlvWnRFN2RNNUVNUE9uWHNvOThhSDMzdnJCbkpZUDVMVEdoLWx5ejM5WkhBcmFJOGgxZURaR28zd3FPZzY?oc=5</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2062,175 +2062,175 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>원산지</t>
+          <t>FTA</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>인천시, 농‧축산물 부정유통 행위 7개소 적발 - 경인매일</t>
+          <t>구윤철 '글로벌 관세 15%, 한미 FTA로 다른나라보다 유리' - 데일리한국</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>인천시, 농‧축산물 부정유통 행위 7개소 적발&amp;nbsp;&amp;nbsp;경인매일</t>
+          <t>구윤철 '글로벌 관세 15%, 한미 FTA로 다른나라보다 유리'&amp;nbsp;&amp;nbsp;데일리한국</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 11:54:15 GMT</t>
+          <t>Mon, 23 Feb 2026 10:16:04 GMT</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiaEFVX3lxTFBCTkg1ZWl5bmlKTDBBd090WkwzVmVGckliUE95R3FfN2hQVFA2dndTRHAtZlhwNHRockEzVl90NFpubWNpOGxWY0JjWDF3dXQxeGNYMzF4Qk9wNWpMNHRXcjBJWFVXQWJi?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE16UXpiaC1VanpqVWRLVzRicjI4aTVPWHlHbU9KanpmS1FYcFlvRXRkbkRvQXZNVlFQcnhURVU5WmIzVEEwNVM2MmxIdmI3MnJQcW9uQzNwVnRvSS1QM2VTRlk5dTQtLTI2ZE1YLVNXQdIBc0FVX3lxTE16Qkw0NVExb2N3N2w1WVdxa0pNNVVGMzh5Zmh5amZQY3hKMldEMkVFTWFZMDNMa3ZDYVNiTTRTeFBVWVk4WEpEYU9fRUt6d0NSalhiNkJEdEp0WnRYTlhEcTM4Z3I2bTFzenNxWGxBaXpEQkE?oc=5</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>하</t>
+          <t>중</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>원산지</t>
+          <t>FTA</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>설 앞둔 인천 농‧축산물 단속, 7곳 위반 적발 - livesnews.com</t>
+          <t>[슈퍼 301조 경고등] 발동 땐 한미 FTA 실효성 시험대…관세 압박에 사면초가 - 아주경제</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>설 앞둔 인천 농‧축산물 단속, 7곳 위반 적발&amp;nbsp;&amp;nbsp;livesnews.com</t>
+          <t>[슈퍼 301조 경고등] 발동 땐 한미 FTA 실효성 시험대…관세 압박에 사면초가&amp;nbsp;&amp;nbsp;아주경제</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 00:38:59 GMT</t>
+          <t>Mon, 23 Feb 2026 07:25:58 GMT</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiXEFVX3lxTE5mNnFIcTFsRldLak5idjZ1VHVXMElmcEZod3pMbXRBTjdrWVBqNW52RVpMdVc4SWh5TGVfaUxRQzlJZjl1OG1Rb3BlanBqdmM2WXFJV3JFcGlodzV6?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiWkFVX3lxTE1VWmE5cm5UVXhTTUxiLWxtdnNiSk45THg3VmIta0p0M05hNGFjTWFhaEpwRlIxOVdSQTY4VWhHdHk4OGJTMFRCeFRSdlAySXBDeUh0eGFxRkROd9IBWEFVX3lxTFB6dnMzTmZ6LXRGVzRLc0FkNGZCODdGT1VYbkVzTEFKWU5ucS04WTlUOGJybWg0UUZGRVQyZlotcWZSRTRKTTJodFpIX2xOczF5LV9RQmNESDg?oc=5</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>하</t>
+          <t>중</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>수출통제</t>
+          <t>FTA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"80년 봉인 풀렸다"… 일본, 살상무기 들고 K-방산 텃밭 정조준 - reportera.co.kr</t>
+          <t>통관·FTA·지식재산 한자리에…구미 원스톱 수출지원 본격 가동 - 경북일보</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"80년 봉인 풀렸다"… 일본, 살상무기 들고 K-방산 텃밭 정조준&amp;nbsp;&amp;nbsp;reportera.co.kr</t>
+          <t>통관·FTA·지식재산 한자리에…구미 원스톱 수출지원 본격 가동&amp;nbsp;&amp;nbsp;경북일보</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 02:30:00 GMT</t>
+          <t>Mon, 23 Feb 2026 08:08:02 GMT</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxNZ25RU1pDZ2tkbVFmQ2otZXZ1a2JSenJLZlRBcUlRMVJLcXBsR3ctdmNFdWRlYmhOTjNoSjlPWmppT1RUUlJEdDUtcmxsZ0Y4TUs4UmVwS2NvWVRGek05VVR5Qi1tVEZscFFUQmo1dnlZTTV6dVdJU005cEJVZGx3cUg2VTRjYnhjNVpWTVNlR0o2UXlyMkJFddIBoAFBVV95cUxPY096NXFWRUhVaVBObFNyM0tVZ2N6Y0FXZm0xN05NOGN3bEtDX2FkQU01dlhfZXVRR1A5b3VhbVQyT0RNaDZxU0MxSEpVVFFzSEliZ1p3SnR0THNrMElPcVNVc1pUbkdyd1F6ZzdyV2xuSEhmZTNkM3VVY0NQUnl1NGhlb3FRb0t0Tmh5WjNtdDZGcXBqS0FFSF9RTTVfVVBw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE1iMWt6ZGprMjY2cjE1Zi11NUozNmx6OElGYldmUWpCb0lJQWZQd2Q5M0NYSXlSWUNUSjZQaXhJMGVidW5ndW5uX3pPN1NsbTVaN3BRMlhXQ092eEgxOG1IUHVBLXAyb0pDQUN1X2M5Yw?oc=5</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>하</t>
+          <t>중</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>무역구제</t>
+          <t>FTA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>일본･중국산 열연제품 무역구제조치 심의･의결 - mstoday.co.kr</t>
+          <t>구윤철 "상호관세 무효, FTA 체결국인 韓 유리한 측면 있어" - edaily.co.kr</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>일본･중국산 열연제품 무역구제조치 심의･의결&amp;nbsp;&amp;nbsp;mstoday.co.kr</t>
+          <t>구윤철 "상호관세 무효, FTA 체결국인 韓 유리한 측면 있어"&amp;nbsp;&amp;nbsp;edaily.co.kr</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 11:34:25 GMT</t>
+          <t>Mon, 23 Feb 2026 06:38:24 GMT</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiZ0FVX3lxTE1ZdzVIbXZnRTJmZkQtNEltRTNLQkdlV09jZldmVG85N2J3bGVSTVB2NGtzLWh2a1JucHJra2h1Tnh3STA5VjRiZHh6c3ZvVHpSdXI3VDB3b2k3MmxGU3FkU3l3RGlGNDg?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMigAFBVV95cUxQZExQVF9mQXZDYkZocXV5T0Z5WkdQdm9GVVdLUDY1c3YyNWk4YVp4V0ctejRUMFhQUkpNaFFNQmc5UzM0YjFDeC1BbEJjNjJxdkozdHQ2ODBTdkk3MlJpNmpQdHpodElLMHVFUTJkaXlDdmJ1MktXT25VTmFCeVFEQQ?oc=5</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>하</t>
+          <t>중</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>무역구제</t>
+          <t>원산지</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>무역위, 일본·중국산 열연제품 무역구제조치 심의·의결 - 데일리안</t>
+          <t>[사설] 농축수산물 원산지 위반 증가세…근절책 시급 - 경기신문</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>무역위, 일본·중국산 열연제품 무역구제조치 심의·의결&amp;nbsp;&amp;nbsp;데일리안</t>
+          <t>[사설] 농축수산물 원산지 위반 증가세…근절책 시급&amp;nbsp;&amp;nbsp;경기신문</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 06:48:00 GMT</t>
+          <t>Mon, 23 Feb 2026 21:00:00 GMT</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiV0FVX3lxTE1pbEczWFk4Nng5MVF6dzRQVzB2SXhzVy1sYTBQRE1ucFBJNTFmZWs0My1acW1TSk5qSlNOMm9ySmRKYUVWeFdFNGk5MHpqaE96eHp1cmhRWdIBsAJBVV95cUxOXzlwNGROemNSVk00Ymw0dzl2N251QlhEQl93S0R4ZG5xc0dzTFRLSUc2Ui11cXF1ODlMS002QzJNZXpqTzkydzdLUkQ2RFVIczdmLThFR0RuU25oaXBZRFJJLWR4S01maGgwdGZCbFFmRmp4UEd5VnBHcUdXVFhERFhmSEUyMXVrYTU1VUpfRlZpS3dCWlJIdmhxSEZsNFBRaFVIUFRGeEtiNldzMnR5NnJteDU0cWVDem1jek1oLVRsY1RzbVBlbHpQbVhVR0phc09EWDhPZWhDZ2R2VU02RzdWTmRpZkM1RVI1LTNDellkQUVuTEQzVVI5alR4NnVpdmszWGprTDl3VC1UQXRNVmEtTE9tdmpPeVVXRWNZSVhsUDJiWnc3SXdwMHVCNTlQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiYkFVX3lxTE5aMmUxTkluN29femE1MS1UM3ZWT05RUWJRdUFhLUhLWk44NnR4LU93QkFLcTFWemFCQ1pQN2JKYTJmUkxTWGFDRjctaW5ndjBQN2l3azZhNk1yVldacFd3S2Fn?oc=5</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2240,34 +2240,34 @@
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>무역구제</t>
+          <t>원산지</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>무역위, 일본·중국 열연제품에 28.16~33.43% 덤핑관세 부과 - 뉴시스</t>
+          <t>인천시, 농‧축산물 부정유통 행위 7개소 적발 - 경인매일</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>무역위, 일본·중국 열연제품에 28.16~33.43% 덤핑관세 부과&amp;nbsp;&amp;nbsp;뉴시스</t>
+          <t>인천시, 농‧축산물 부정유통 행위 7개소 적발&amp;nbsp;&amp;nbsp;경인매일</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 07:09:21 GMT</t>
+          <t>Mon, 23 Feb 2026 11:54:15 GMT</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMieEFVX3lxTE04NVA5ekdCbVl1Ui13Y2E1YUhwYzA3RV9fSUU2YzJFQmVuRVR0WmM3djRkNjMxTFZDNm5LTHNHRGtFazFWTTEzZ0s2WkdSRUk0bVA5SDVqUHR2Y1NhckJVenRkcXBMZnhCdlhZRW93dG9qdXQyMEdNMtIBeEFVX3lxTE04NVA5ekdCbVl1Ui13Y2E1YUhwYzA3RV9fSUU2YzJFQmVuRVR0WmM3djRkNjMxTFZDNm5LTHNHRGtFazFWTTEzZ0s2WkdSRUk0bVA5SDVqUHR2Y1NhckJVenRkcXBMZnhCdlhZRW93dG9qdXQyMEdNMg?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiaEFVX3lxTFBCTkg1ZWl5bmlKTDBBd090WkwzVmVGckliUE95R3FfN2hQVFA2dndTRHAtZlhwNHRockEzVl90NFpubWNpOGxWY0JjWDF3dXQxeGNYMzF4Qk9wNWpMNHRXcjBJWFVXQWJi?oc=5</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2277,34 +2277,34 @@
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>무역구제</t>
+          <t>수출통제</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>日·中 열연제품에 최대 33% 반덤핑 관세 ‘철퇴’ - 한스경제</t>
+          <t>"80년 봉인 풀렸다"… 일본, 살상무기 들고 K-방산 텃밭 정조준 - reportera.co.kr</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>日·中 열연제품에 최대 33% 반덤핑 관세 ‘철퇴’&amp;nbsp;&amp;nbsp;한스경제</t>
+          <t>"80년 봉인 풀렸다"… 일본, 살상무기 들고 K-방산 텃밭 정조준&amp;nbsp;&amp;nbsp;reportera.co.kr</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 09:54:29 GMT</t>
+          <t>Mon, 23 Feb 2026 02:30:00 GMT</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTFBMYndtVlNiOWhBMGZka0x6cFMyTDFDMVE1ZEV0dEpCWWJyRkpFZFFpd0QyTDU3eGl3YzY2ZFVqbjRQRkNNZ01Ib2VGeUFSY2EwUmVwVUt5SVhlSmpUMHZKRmVpcjBpZThBWHhfQnVMVdIBb0FVX3lxTFBMYndtVlNiOWhBMGZka0x6cFMyTDFDMVE1ZEV0dEpCWWJyRkpFZFFpd0QyTDU3eGl3YzY2ZFVqbjRQRkNNZ01Ib2VGeUFSY2EwUmVwVUt5SVhlSmpUMHZKRmVpcjBpZThBWHhfQnVMVQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxNZ25RU1pDZ2tkbVFmQ2otZXZ1a2JSenJLZlRBcUlRMVJLcXBsR3ctdmNFdWRlYmhOTjNoSjlPWmppT1RUUlJEdDUtcmxsZ0Y4TUs4UmVwS2NvWVRGek05VVR5Qi1tVEZscFFUQmo1dnlZTTV6dVdJU005cEJVZGx3cUg2VTRjYnhjNVpWTVNlR0o2UXlyMkJFddIBoAFBVV95cUxPY096NXFWRUhVaVBObFNyM0tVZ2N6Y0FXZm0xN05NOGN3bEtDX2FkQU01dlhfZXVRR1A5b3VhbVQyT0RNaDZxU0MxSEpVVFFzSEliZ1p3SnR0THNrMElPcVNVc1pUbkdyd1F6ZzdyV2xuSEhmZTNkM3VVY0NQUnl1NGhlb3FRb0t0Tmh5WjNtdDZGcXBqS0FFSF9RTTVfVVBw?oc=5</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2326,22 +2326,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>무역위, 日·中 열연 덤핑 피해 확정…관세·가격약속 병행 - 스틸데일리</t>
+          <t>일본･중국산 열연제품 무역구제조치 심의･의결 - mstoday.co.kr</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>무역위, 日·中 열연 덤핑 피해 확정…관세·가격약속 병행&amp;nbsp;&amp;nbsp;스틸데일리</t>
+          <t>일본･중국산 열연제품 무역구제조치 심의･의결&amp;nbsp;&amp;nbsp;mstoday.co.kr</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 08:52:10 GMT</t>
+          <t>Mon, 23 Feb 2026 11:34:25 GMT</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMidEFVX3lxTE9lak1xRm5yYzUyVzcyOW04X3pSVERNWUJidkRodjQ1ZTJsVXY4SklUdkRvMU1CTkQxaGVqazc3STk1cjV4aTRkVVR4VTdwSnNTWHBkMkl4OXd3TlZiVEg1cmxtRkZ2R2dDRU8wRlczcC00UF9u0gF0QVVfeXFMT2VqTXFGbnJjNTJXNzI5bThfelJURE1ZQmJ2RGh2NDVlMmxVdjhKSVR2RG8xTUJORDFoZWprNzdJOTVyNXhpNGRVVHhVN3BKc1NYcGQySXg5d3dOVmJUSDVybG1GRnZHZ0NFTzBGVzNwLTRQX24?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiZ0FVX3lxTE1ZdzVIbXZnRTJmZkQtNEltRTNLQkdlV09jZldmVG85N2J3bGVSTVB2NGtzLWh2a1JucHJra2h1Tnh3STA5VjRiZHh6c3ZvVHpSdXI3VDB3b2k3MmxGU3FkU3l3RGlGNDg?oc=5</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2363,22 +2363,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>일본·중국산 열연제품 최대 33% 반덤핑관세…무역위, 가격약속 병행 의결 - 뉴스1</t>
+          <t>무역위, 일본·중국산 열연제품 무역구제조치 심의·의결 - 데일리안</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>일본·중국산 열연제품 최대 33% 반덤핑관세…무역위, 가격약속 병행 의결&amp;nbsp;&amp;nbsp;뉴스1</t>
+          <t>무역위, 일본·중국산 열연제품 무역구제조치 심의·의결&amp;nbsp;&amp;nbsp;데일리안</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 08:17:17 GMT</t>
+          <t>Mon, 23 Feb 2026 06:48:00 GMT</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiX0FVX3lxTE04SU9LVUNrR1ZTc0Y4b29QM3JJSTZPbGZiY2xaZFVZb2hlcjdPR0RQbFZ3eWVZVDgxUjNZd2w4Z0NuS1ZMYlV3SGhhSUMxSjNDbmhab3BtSmR2eUowSHNn?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiV0FVX3lxTE1pbEczWFk4Nng5MVF6dzRQVzB2SXhzVy1sYTBQRE1ucFBJNTFmZWs0My1acW1TSk5qSlNOMm9ySmRKYUVWeFdFNGk5MHpqaE96eHp1cmhRWdIBsAJBVV95cUxOXzlwNGROemNSVk00Ymw0dzl2N251QlhEQl93S0R4ZG5xc0dzTFRLSUc2Ui11cXF1ODlMS002QzJNZXpqTzkydzdLUkQ2RFVIczdmLThFR0RuU25oaXBZRFJJLWR4S01maGgwdGZCbFFmRmp4UEd5VnBHcUdXVFhERFhmSEUyMXVrYTU1VUpfRlZpS3dCWlJIdmhxSEZsNFBRaFVIUFRGeEtiNldzMnR5NnJteDU0cWVDem1jek1oLVRsY1RzbVBlbHpQbVhVR0phc09EWDhPZWhDZ2R2VU02RzdWTmRpZkM1RVI1LTNDellkQUVuTEQzVVI5alR4NnVpdmszWGprTDl3VC1UQXRNVmEtTE9tdmpPeVVXRWNZSVhsUDJiWnc3SXdwMHVCNTlQ?oc=5</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2400,22 +2400,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>정부, 日ㆍ中 열연 강판에 최고 33% 반덤핑 관세…“국산 제품 출하량 100만t 증가” - v.daum.net</t>
+          <t>정부, 日·中 열연제품에 최대 33.43% 반덤핑 관세 부과 추진 - 청년일보</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>정부, 日ㆍ中 열연 강판에 최고 33% 반덤핑 관세…“국산 제품 출하량 100만t 증가”&amp;nbsp;&amp;nbsp;v.daum.net</t>
+          <t>정부, 日·中 열연제품에 최대 33.43% 반덤핑 관세 부과 추진&amp;nbsp;&amp;nbsp;청년일보</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 12:55:24 GMT</t>
+          <t>Tue, 24 Feb 2026 00:16:36 GMT</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE9OWUhlNzhicHhoRjdKZGJmbUdteFhHYUc1U2tDcHFzV1otZEJlWGRJYUZLLVBEaHF2NG40b2IxQkd3Y3ZjdFdqYlZiU0prY0E?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiZ0FVX3lxTE5WZVVlaUpxQjlXN2hkTElROG4wWXRYNW95RlhjRFBLQThZT25TYzBVVlhIX0V6SWl2X0d5VGg5TzNmTHg3NFNLLWpxZDBLN211VFBHc01yQUVGY1NRNHZ6djFYWlBPOWc?oc=5</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2437,22 +2437,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>열연제품에 ‘최대 33% 덤핑관세’ 압박에…백기 든 일·중 업체들 - 부산일보사</t>
+          <t>日·中 열연제품에 최대 33% 반덤핑 관세 ‘철퇴’ - 한스경제</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>열연제품에 ‘최대 33% 덤핑관세’ 압박에…백기 든 일·중 업체들&amp;nbsp;&amp;nbsp;부산일보사</t>
+          <t>日·中 열연제품에 최대 33% 반덤핑 관세 ‘철퇴’&amp;nbsp;&amp;nbsp;한스경제</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 08:18:20 GMT</t>
+          <t>Mon, 23 Feb 2026 09:54:29 GMT</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMidEFVX3lxTFBCMFBIc2NTSDZsWUJtbUZsTWFUbkI0Y0M2cnY1ZWduSm10YmNBdnNiOFdwM2VEUW1MdmF6dnBSX0dFYm5Udnh6M1lROTdCZHBocnhtLS1qZlBvUU9IQTJST3lEX3ZMMmI4YVdDOVpsRWpHMUli?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTFBMYndtVlNiOWhBMGZka0x6cFMyTDFDMVE1ZEV0dEpCWWJyRkpFZFFpd0QyTDU3eGl3YzY2ZFVqbjRQRkNNZ01Ib2VGeUFSY2EwUmVwVUt5SVhlSmpUMHZKRmVpcjBpZThBWHhfQnVMVdIBb0FVX3lxTFBMYndtVlNiOWhBMGZka0x6cFMyTDFDMVE1ZEV0dEpCWWJyRkpFZFFpd0QyTDU3eGl3YzY2ZFVqbjRQRkNNZ01Ib2VGeUFSY2EwUmVwVUt5SVhlSmpUMHZKRmVpcjBpZThBWHhfQnVMVQ?oc=5</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2474,22 +2474,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>무역위, 日·中 열연제품 최대 33% 반덤핑관세 부과 - 아이뉴스24</t>
+          <t>무역위, 일본·중국 열연제품에 28.16~33.43% 덤핑관세 부과 - 뉴시스</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>무역위, 日·中 열연제품 최대 33% 반덤핑관세 부과&amp;nbsp;&amp;nbsp;아이뉴스24</t>
+          <t>무역위, 일본·중국 열연제품에 28.16~33.43% 덤핑관세 부과&amp;nbsp;&amp;nbsp;뉴시스</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 08:36:43 GMT</t>
+          <t>Mon, 23 Feb 2026 07:09:21 GMT</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiTEFVX3lxTE16OXZ5MkJOd1pkUDNzQWpsa3lwV1ZJLWlKVzRHY1dhQmdGQUFRNkFObnljckQ4M2Z5Zk0zSmEyeEFQeXpwYWJQdnBtcF8?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMieEFVX3lxTE04NVA5ekdCbVl1Ui13Y2E1YUhwYzA3RV9fSUU2YzJFQmVuRVR0WmM3djRkNjMxTFZDNm5LTHNHRGtFazFWTTEzZ0s2WkdSRUk0bVA5SDVqUHR2Y1NhckJVenRkcXBMZnhCdlhZRW93dG9qdXQyMEdNMtIBeEFVX3lxTE04NVA5ekdCbVl1Ui13Y2E1YUhwYzA3RV9fSUU2YzJFQmVuRVR0WmM3djRkNjMxTFZDNm5LTHNHRGtFazFWTTEzZ0s2WkdSRUk0bVA5SDVqUHR2Y1NhckJVenRkcXBMZnhCdlhZRW93dG9qdXQyMEdNMg?oc=5</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2511,22 +2511,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>日·中 열연제품 최대 33% 반덤핑 관세 부과에 9개사 가격인상 - 네이트</t>
+          <t>무역위, 日·中 열연 덤핑 피해 확정…관세·가격약속 병행 - 스틸데일리</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>日·中 열연제품 최대 33% 반덤핑 관세 부과에 9개사 가격인상&amp;nbsp;&amp;nbsp;네이트</t>
+          <t>무역위, 日·中 열연 덤핑 피해 확정…관세·가격약속 병행&amp;nbsp;&amp;nbsp;스틸데일리</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 11:00:00 GMT</t>
+          <t>Mon, 23 Feb 2026 08:52:10 GMT</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTFBlSVQxM0NVaWtxbVZocEVidmExWHdHNTJWaXh3LU9QaUlCbGxRSzdiSzViZGZQU1I1aW9ya2VJWnp5czFfR3dQb0tyOUVwLTNReGZn?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMidEFVX3lxTE9lak1xRm5yYzUyVzcyOW04X3pSVERNWUJidkRodjQ1ZTJsVXY4SklUdkRvMU1CTkQxaGVqazc3STk1cjV4aTRkVVR4VTdwSnNTWHBkMkl4OXd3TlZiVEg1cmxtRkZ2R2dDRU8wRlczcC00UF9u0gF0QVVfeXFMT2VqTXFGbnJjNTJXNzI5bThfelJURE1ZQmJ2RGh2NDVlMmxVdjhKSVR2RG8xTUJORDFoZWprNzdJOTVyNXhpNGRVVHhVN3BKc1NYcGQySXg5d3dOVmJUSDVybG1GRnZHZ0NFTzBGVzNwLTRQX24?oc=5</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2548,22 +2548,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>무역위, 日·中 열연제품에 '최고 33.4%' 반덤핑 관세 - 네이트</t>
+          <t>일본·중국산 열연제품 최대 33% 반덤핑관세…무역위, 가격약속 병행 의결 - 뉴스1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>무역위, 日·中 열연제품에 '최고 33.4%' 반덤핑 관세&amp;nbsp;&amp;nbsp;네이트</t>
+          <t>일본·중국산 열연제품 최대 33% 반덤핑관세…무역위, 가격약속 병행 의결&amp;nbsp;&amp;nbsp;뉴스1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 07:10:00 GMT</t>
+          <t>Mon, 23 Feb 2026 08:17:17 GMT</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMieEFVX3lxTE9yd0lKdWNHSXJKcVVkakdTdlNTM3dKNkF3NG90d21IY0tBRk1rdGNmb3JTamZjazRRa0liSWVmV0RneXNuMjJsVlJzYnFfcl9jbkZXTl9fMjdqcTVGLWgwTjBmOEpYOWhFWmF4MWxyQy1ISmVjclJ3dQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiX0FVX3lxTE04SU9LVUNrR1ZTc0Y4b29QM3JJSTZPbGZiY2xaZFVZb2hlcjdPR0RQbFZ3eWVZVDgxUjNZd2w4Z0NuS1ZMYlV3SGhhSUMxSjNDbmhab3BtSmR2eUowSHNn?oc=5</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2585,22 +2585,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>일본·중국 덤핑 멈춰라… 정부, 열연제품 최대 33% 반덤핑관세 부과 - segye.com</t>
+          <t>정부, 日ㆍ中 열연 강판에 최고 33% 반덤핑 관세…“국산 제품 출하량 100만t 증가” - v.daum.net</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>일본·중국 덤핑 멈춰라… 정부, 열연제품 최대 33% 반덤핑관세 부과&amp;nbsp;&amp;nbsp;segye.com</t>
+          <t>정부, 日ㆍ中 열연 강판에 최고 33% 반덤핑 관세…“국산 제품 출하량 100만t 증가”&amp;nbsp;&amp;nbsp;v.daum.net</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 08:54:50 GMT</t>
+          <t>Mon, 23 Feb 2026 12:55:24 GMT</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMia0FVX3lxTE9Fcjh3d0VncGFESmtaNXZWeWs0UGFPMEtGbC1ZdEdkWFMyMDIxRlFjMzlhX0VOb3JQQ3VhVDRuZ2JTd0Noa2VlSFZkdmt5ZDBHeWdsVXdPZmFZYXpqUHAwS2I0ZlFkcE8xajVF0gFUQVVfeXFMTk1LelhHc0RQQWJNVy1VNEx5R2tOSnpEU1YwdlFhdFpRMnlMN3ZTRXcwbkFfWVFjSEt1ZV9Nd3NlemFKWFNtSkdwU05qbFo3OXFXTXhp?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE9OWUhlNzhicHhoRjdKZGJmbUdteFhHYUc1U2tDcHFzV1otZEJlWGRJYUZLLVBEaHF2NG40b2IxQkd3Y3ZjdFdqYlZiU0prY0E?oc=5</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2622,22 +2622,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>무역위, 日·中 열연제품에 '최고 33.4%' 반덤핑 관세 - 네이트</t>
+          <t>무역위, 日·中 열연제품 최대 33% 반덤핑관세 부과 - 아이뉴스24</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>무역위, 日·中 열연제품에 '최고 33.4%' 반덤핑 관세&amp;nbsp;&amp;nbsp;네이트</t>
+          <t>무역위, 日·中 열연제품 최대 33% 반덤핑관세 부과&amp;nbsp;&amp;nbsp;아이뉴스24</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 06:47:00 GMT</t>
+          <t>Mon, 23 Feb 2026 08:36:43 GMT</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTE02VUJneWVMRlJsUVJkank0a1RuVDFzRmZ1WnZPVkVoNHQyNXBrWkg1bGE2bFo5T2ZHOGNvTGlGVjhuVXlpWm91U2ZaUHhNdkhDSEtv?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiTEFVX3lxTE16OXZ5MkJOd1pkUDNzQWpsa3lwV1ZJLWlKVzRHY1dhQmdGQUFRNkFObnljckQ4M2Z5Zk0zSmEyeEFQeXpwYWJQdnBtcF8?oc=5</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2659,22 +2659,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>무역위, 日·中 열연제품 최고 34% 반덤핑관세 부과 결정 - 네이트</t>
+          <t>日·中 열연제품 최대 33% 반덤핑 관세 부과에 9개사 가격인상 - 네이트</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>무역위, 日·中 열연제품 최고 34% 반덤핑관세 부과 결정&amp;nbsp;&amp;nbsp;네이트</t>
+          <t>日·中 열연제품 최대 33% 반덤핑 관세 부과에 9개사 가격인상&amp;nbsp;&amp;nbsp;네이트</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 07:09:00 GMT</t>
+          <t>Mon, 23 Feb 2026 11:00:00 GMT</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTE44RmdyY0pzVUpGZC15eHNkQmJJTERBVUNrMnpVNnBoUzl0X2JkSHAtZ1FEMmxtV2tTT2FBVTVWaTE2ZVg2VFBLVml0UnRBVUFOZmdJ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTFBlSVQxM0NVaWtxbVZocEVidmExWHdHNTJWaXh3LU9QaUlCbGxRSzdiSzViZGZQU1I1aW9ya2VJWnp5czFfR3dQb0tyOUVwLTNReGZn?oc=5</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2687,6 +2687,154 @@
         <v>5</v>
       </c>
       <c r="I61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>무역구제</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>무역위, 日·中 열연제품에 '최고 33.4%' 반덤핑 관세 - 네이트</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>무역위, 日·中 열연제품에 '최고 33.4%' 반덤핑 관세&amp;nbsp;&amp;nbsp;네이트</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Mon, 23 Feb 2026 07:10:00 GMT</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMieEFVX3lxTE9yd0lKdWNHSXJKcVVkakdTdlNTM3dKNkF3NG90d21IY0tBRk1rdGNmb3JTamZjazRRa0liSWVmV0RneXNuMjJsVlJzYnFfcl9jbkZXTl9fMjdqcTVGLWgwTjBmOEpYOWhFWmF4MWxyQy1ISmVjclJ3dQ?oc=5</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>무역구제</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>일본·중국 덤핑 멈춰라… 정부, 열연제품 최대 33% 반덤핑관세 부과 - segye.com</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>일본·중국 덤핑 멈춰라… 정부, 열연제품 최대 33% 반덤핑관세 부과&amp;nbsp;&amp;nbsp;segye.com</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Mon, 23 Feb 2026 08:54:50 GMT</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMia0FVX3lxTE9Fcjh3d0VncGFESmtaNXZWeWs0UGFPMEtGbC1ZdEdkWFMyMDIxRlFjMzlhX0VOb3JQQ3VhVDRuZ2JTd0Noa2VlSFZkdmt5ZDBHeWdsVXdPZmFZYXpqUHAwS2I0ZlFkcE8xajVF0gFUQVVfeXFMTk1LelhHc0RQQWJNVy1VNEx5R2tOSnpEU1YwdlFhdFpRMnlMN3ZTRXcwbkFfWVFjSEt1ZV9Nd3NlemFKWFNtSkdwU05qbFo3OXFXTXhp?oc=5</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>무역구제</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>무역위, 日·中 열연제품에 '최고 33.4%' 반덤핑 관세 - 네이트</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>무역위, 日·中 열연제품에 '최고 33.4%' 반덤핑 관세&amp;nbsp;&amp;nbsp;네이트</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Mon, 23 Feb 2026 06:47:00 GMT</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTE02VUJneWVMRlJsUVJkank0a1RuVDFzRmZ1WnZPVkVoNHQyNXBrWkg1bGE2bFo5T2ZHOGNvTGlGVjhuVXlpWm91U2ZaUHhNdkhDSEtv?oc=5</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>무역구제</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>무역위, 日·中 열연제품 최고 34% 반덤핑관세 부과 결정 - 네이트</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>무역위, 日·中 열연제품 최고 34% 반덤핑관세 부과 결정&amp;nbsp;&amp;nbsp;네이트</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Mon, 23 Feb 2026 07:09:00 GMT</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTE44RmdyY0pzVUpGZC15eHNkQmJJTERBVUNrMnpVNnBoUzl0X2JkSHAtZ1FEMmxtV2tTT2FBVTVWaTE2ZVg2VFBLVml0UnRBVUFOZmdJ?oc=5</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
